--- a/ig/contenu_narratif/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/contenu_narratif/StructureDefinition-eclaire-researchstudy.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-20T16:07:23+00:00</t>
+    <t>2023-04-20T16:20:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/contenu_narratif/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/contenu_narratif/StructureDefinition-eclaire-researchstudy.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-20T16:41:31+00:00</t>
+    <t>2023-04-21T12:14:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/contenu_narratif/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/contenu_narratif/StructureDefinition-eclaire-researchstudy.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T15:48:54+00:00</t>
+    <t>2023-04-21T15:56:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/contenu_narratif/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/contenu_narratif/StructureDefinition-eclaire-researchstudy.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-22T07:57:03+00:00</t>
+    <t>2023-06-22T08:05:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/contenu_narratif/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/contenu_narratif/StructureDefinition-eclaire-researchstudy.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-22T08:05:23+00:00</t>
+    <t>2023-06-23T21:06:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/contenu_narratif/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/contenu_narratif/StructureDefinition-eclaire-researchstudy.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-23T21:06:16+00:00</t>
+    <t>2023-06-26T12:51:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/contenu_narratif/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/contenu_narratif/StructureDefinition-eclaire-researchstudy.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26T12:51:11+00:00</t>
+    <t>2023-06-28T07:21:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/contenu_narratif/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/contenu_narratif/StructureDefinition-eclaire-researchstudy.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-28T07:21:29+00:00</t>
+    <t>2023-06-29T16:03:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/contenu_narratif/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/contenu_narratif/StructureDefinition-eclaire-researchstudy.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-29T16:03:33+00:00</t>
+    <t>2023-06-30T09:03:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
